--- a/biology/Zoologie/Arctocephalus_philippii/Arctocephalus_philippii.xlsx
+++ b/biology/Zoologie/Arctocephalus_philippii/Arctocephalus_philippii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Otarie des îles Juan Fernandez (Arctocephalus philippii) est comme son nom l'indique endémique (elle ne vit que dans ce lieu) de l'Archipel Juan Fernández, au large des côtes du Chili, ou naquit l'histoire de Robinson Crusoé.
 C'est la plus petite en taille des otaries, à l'exception de sa proche cousine, l'Otarie des Galapagos Arctocephalus galapagoensis, qui est encore plus petite.
